--- a/data/trans_orig/P6701-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3738</v>
+        <v>3673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16498</v>
+        <v>16246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1032354386421084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04511914824827404</v>
+        <v>0.04433453393764607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1991325812265878</v>
+        <v>0.1960846713254068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>12045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6777</v>
+        <v>6826</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19329</v>
+        <v>19762</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1371819517725021</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07718578779579832</v>
+        <v>0.0777410212628127</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2201488919272212</v>
+        <v>0.225078328695521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -785,19 +785,19 @@
         <v>20598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12945</v>
+        <v>13361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30664</v>
+        <v>30666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.120701017942639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07585396623209591</v>
+        <v>0.07829294265728352</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1796845575429968</v>
+        <v>0.1797014171406966</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>9054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4202</v>
+        <v>4070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17055</v>
+        <v>17619</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1092804185904664</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05072070379944963</v>
+        <v>0.0491243174234524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2058555093468647</v>
+        <v>0.2126576322534184</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -835,19 +835,19 @@
         <v>9068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4049</v>
+        <v>4919</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16047</v>
+        <v>16187</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1032786745280466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04611260217405267</v>
+        <v>0.0560214122180244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1827671769625508</v>
+        <v>0.1843575369023231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -856,19 +856,19 @@
         <v>18122</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11127</v>
+        <v>11025</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29478</v>
+        <v>28234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1061925038918039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06520223669633235</v>
+        <v>0.06460578221214372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.172739578286876</v>
+        <v>0.1654452227456712</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>24558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16914</v>
+        <v>16750</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34116</v>
+        <v>34055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2964072766470237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2041456521628149</v>
+        <v>0.2021666263644552</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4117709662422835</v>
+        <v>0.4110356058522812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -906,19 +906,19 @@
         <v>24819</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17355</v>
+        <v>15966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33749</v>
+        <v>33840</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2826677024492141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1976591612314415</v>
+        <v>0.1818395198855456</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3843810273493856</v>
+        <v>0.385417230842961</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -927,19 +927,19 @@
         <v>49376</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38175</v>
+        <v>37052</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61754</v>
+        <v>62632</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2893382259381745</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2236988794061671</v>
+        <v>0.2171176359699381</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3618694135884537</v>
+        <v>0.3670130129364662</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>21409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12928</v>
+        <v>13623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29723</v>
+        <v>30740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2584012537308366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1560417445127792</v>
+        <v>0.1644249205890219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3587546428563072</v>
+        <v>0.3710280140311814</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -977,19 +977,19 @@
         <v>17633</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11310</v>
+        <v>10630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26249</v>
+        <v>26243</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2008239469971582</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1288125700170334</v>
+        <v>0.121069823043105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2989610874739332</v>
+        <v>0.2988886161172336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -998,19 +998,19 @@
         <v>39041</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27843</v>
+        <v>28111</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51604</v>
+        <v>50292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.228777562696494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1631582903433777</v>
+        <v>0.1647287997201257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3023938803479872</v>
+        <v>0.2947025283343281</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>19277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11589</v>
+        <v>12394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28273</v>
+        <v>27859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.232675612389565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1398802569038828</v>
+        <v>0.1495891464610051</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3412531935525188</v>
+        <v>0.3362539067979345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1048,19 +1048,19 @@
         <v>24237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16523</v>
+        <v>16798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33557</v>
+        <v>33597</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.276047724253079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1881827251295425</v>
+        <v>0.1913188697059178</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3821967357569733</v>
+        <v>0.3826526977932277</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -1069,19 +1069,19 @@
         <v>43515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33379</v>
+        <v>32273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54745</v>
+        <v>56296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2549906895308885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1955985504240964</v>
+        <v>0.1891149563737728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3208004123407153</v>
+        <v>0.329885900920285</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>34212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23673</v>
+        <v>24125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48509</v>
+        <v>47889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08916997796746423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06170193713185438</v>
+        <v>0.06288028406975509</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1264341192991126</v>
+        <v>0.1248181967888751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1194,19 +1194,19 @@
         <v>29979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19898</v>
+        <v>20811</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42447</v>
+        <v>44169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1081539189116284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07178493834001498</v>
+        <v>0.07507940885946174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1531334480357991</v>
+        <v>0.1593444082671053</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1215,19 +1215,19 @@
         <v>64191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50022</v>
+        <v>50928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81615</v>
+        <v>82769</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09713258528547798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07569152152249539</v>
+        <v>0.07706295338028681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1234971137256861</v>
+        <v>0.1252433126025428</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>36258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25709</v>
+        <v>26045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49582</v>
+        <v>50683</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.094501611119616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0670073428706856</v>
+        <v>0.06788306243650503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1292293031162218</v>
+        <v>0.1321004127092432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>26808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19214</v>
+        <v>18734</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38606</v>
+        <v>38599</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0967122887013859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06931645705342149</v>
+        <v>0.06758541059457331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1392745309993488</v>
+        <v>0.1392514471902388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -1286,19 +1286,19 @@
         <v>63065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49130</v>
+        <v>49717</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79575</v>
+        <v>80127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09542885575981708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07434193647589644</v>
+        <v>0.07522957311126877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1204104945902153</v>
+        <v>0.121245461159575</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>135808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116649</v>
+        <v>117398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156054</v>
+        <v>156639</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3539699034213807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3040337997422872</v>
+        <v>0.3059852430604708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4067382836820941</v>
+        <v>0.4082635913286395</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>93</v>
@@ -1336,19 +1336,19 @@
         <v>99379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81418</v>
+        <v>83156</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114915</v>
+        <v>117396</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3585202244218037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2937228021780557</v>
+        <v>0.2999958141453679</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4145690882579096</v>
+        <v>0.4235170510160675</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>224</v>
@@ -1357,19 +1357,19 @@
         <v>235187</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>211097</v>
+        <v>211039</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>262530</v>
+        <v>262119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3558784860177893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3194251273207998</v>
+        <v>0.3193385818991372</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3972527444409264</v>
+        <v>0.3966305441133987</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>89907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73182</v>
+        <v>73855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107325</v>
+        <v>107891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2343336244932651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1907421090752222</v>
+        <v>0.1924943097941495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2797317527891472</v>
+        <v>0.2812057084893975</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1407,19 +1407,19 @@
         <v>66993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53971</v>
+        <v>52019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82222</v>
+        <v>83586</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2416845382274327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1947053294572327</v>
+        <v>0.1876657101218696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2966232493665121</v>
+        <v>0.3015462211843568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -1428,19 +1428,19 @@
         <v>156900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135345</v>
+        <v>133902</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179537</v>
+        <v>177478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2374168852169435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2048003546530917</v>
+        <v>0.2026168574207121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2716699234193</v>
+        <v>0.2685550088788927</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>87487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71808</v>
+        <v>70093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105690</v>
+        <v>104741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.228024882998274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.187160257546075</v>
+        <v>0.1826903864724745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2754704850928686</v>
+        <v>0.2729971054273883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -1478,19 +1478,19 @@
         <v>54033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42007</v>
+        <v>41493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69547</v>
+        <v>68179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1949290297377492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1515437181945385</v>
+        <v>0.1496903303670842</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2508968864392569</v>
+        <v>0.2459644178255715</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1499,19 +1499,19 @@
         <v>141520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121733</v>
+        <v>121641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>162997</v>
+        <v>165029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2141431877199723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1842021403006794</v>
+        <v>0.1840633457588467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2466420707213407</v>
+        <v>0.2497172023293248</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>35297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24535</v>
+        <v>23723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51257</v>
+        <v>48958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.082827022171335</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05757273514501451</v>
+        <v>0.05566859643028203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1202781494075902</v>
+        <v>0.1148829416385047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1624,19 +1624,19 @@
         <v>37434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26588</v>
+        <v>26316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50338</v>
+        <v>50198</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1309703365092348</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09302474823512974</v>
+        <v>0.09207427321963742</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1761183491090998</v>
+        <v>0.1756275984237421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1645,19 +1645,19 @@
         <v>72731</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56446</v>
+        <v>57659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91275</v>
+        <v>92551</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1021539931485857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07928088843548609</v>
+        <v>0.08098567983657405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1282007117521639</v>
+        <v>0.1299929742298574</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>51614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39384</v>
+        <v>38538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69299</v>
+        <v>67865</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1211155182932427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0924184380940898</v>
+        <v>0.09043307646454865</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1626150444308492</v>
+        <v>0.1592514566624434</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1695,19 +1695,19 @@
         <v>26131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17815</v>
+        <v>17632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36723</v>
+        <v>36367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09142700322970065</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06233052481493954</v>
+        <v>0.06169097366954144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1284846540185417</v>
+        <v>0.12723739391432</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -1716,19 +1716,19 @@
         <v>77745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62130</v>
+        <v>59776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>95272</v>
+        <v>95311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1091971641690638</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08726510033384798</v>
+        <v>0.08395793511037848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1338142542569926</v>
+        <v>0.1338689939345968</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>168743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146073</v>
+        <v>148924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>188491</v>
+        <v>190761</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3959683533584661</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3427718433275413</v>
+        <v>0.3494613804277705</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4423088057596128</v>
+        <v>0.4476360543752948</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>95</v>
@@ -1766,19 +1766,19 @@
         <v>98432</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83747</v>
+        <v>82540</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>115209</v>
+        <v>114121</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3443854408723611</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2930079455267996</v>
+        <v>0.2887854113551602</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4030852065954032</v>
+        <v>0.3992782812680501</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>261</v>
@@ -1787,19 +1787,19 @@
         <v>267174</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>240022</v>
+        <v>243726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>294301</v>
+        <v>293709</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3752605673189787</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.337124053172759</v>
+        <v>0.3423267688565343</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4133613420204977</v>
+        <v>0.4125305547668768</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>97882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81577</v>
+        <v>81790</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>116957</v>
+        <v>115877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2296881853107035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1914271070636572</v>
+        <v>0.1919268065469291</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2744496865478638</v>
+        <v>0.2719146997533571</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -1837,19 +1837,19 @@
         <v>55859</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43067</v>
+        <v>42336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70218</v>
+        <v>69799</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1954353670298203</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1506789326631471</v>
+        <v>0.1481216122030475</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2456744043320147</v>
+        <v>0.2442086890889888</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -1858,19 +1858,19 @@
         <v>153741</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130260</v>
+        <v>132955</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178083</v>
+        <v>177336</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2159375070720321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1829567517235278</v>
+        <v>0.1867421044206051</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2501272580630852</v>
+        <v>0.249077908386178</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>72617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57606</v>
+        <v>56656</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87950</v>
+        <v>88596</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1704009208662527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1351769206606206</v>
+        <v>0.1329475010280376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2063817043223354</v>
+        <v>0.207898533751578</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -1908,19 +1908,19 @@
         <v>67962</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54012</v>
+        <v>54450</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>83420</v>
+        <v>84120</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2377818523588832</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1889735458962088</v>
+        <v>0.1905061841330673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2918644231499491</v>
+        <v>0.2943146595619896</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -1929,19 +1929,19 @@
         <v>140579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120344</v>
+        <v>121305</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>162345</v>
+        <v>164262</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1974507682913396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1690295808778116</v>
+        <v>0.1703799162940617</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2280229451905397</v>
+        <v>0.2307142084409063</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>36825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26364</v>
+        <v>24856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49718</v>
+        <v>50253</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1001584162834755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07170607595748438</v>
+        <v>0.06760626239224365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1352266828931926</v>
+        <v>0.1366831318583213</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2054,19 +2054,19 @@
         <v>26940</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17193</v>
+        <v>17289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39640</v>
+        <v>39734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1195534301181122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07629898495674166</v>
+        <v>0.07672225374568246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1759099260523035</v>
+        <v>0.1763296508057571</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -2075,19 +2075,19 @@
         <v>63765</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49385</v>
+        <v>48351</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80766</v>
+        <v>81032</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1075284903966868</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08327947860713657</v>
+        <v>0.08153521758532682</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1361978696601994</v>
+        <v>0.1366471955705651</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>37212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25770</v>
+        <v>25647</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51504</v>
+        <v>50333</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1012116202467278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07009124413661641</v>
+        <v>0.06975759669375113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1400835757193027</v>
+        <v>0.1368991212688454</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2125,19 +2125,19 @@
         <v>37071</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26164</v>
+        <v>26669</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48696</v>
+        <v>49734</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1645125805676386</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1161110044891802</v>
+        <v>0.1183497573874595</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2161012780139214</v>
+        <v>0.2207072836680955</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>66</v>
@@ -2146,19 +2146,19 @@
         <v>74283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>58053</v>
+        <v>59431</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>92653</v>
+        <v>95205</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1252658835218281</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09789595163991788</v>
+        <v>0.1002201211375199</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1562431633402937</v>
+        <v>0.1605480289289623</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>144191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126065</v>
+        <v>123925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>165176</v>
+        <v>162647</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3921833642509218</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3428832671419417</v>
+        <v>0.3370609460425317</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4492595466108187</v>
+        <v>0.4423809819830191</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -2196,19 +2196,19 @@
         <v>81173</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66889</v>
+        <v>65821</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96906</v>
+        <v>97231</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.36022358980203</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2968338186004628</v>
+        <v>0.2920962671691523</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4300429780237215</v>
+        <v>0.4314868735024325</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>196</v>
@@ -2217,19 +2217,19 @@
         <v>225364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>200309</v>
+        <v>201271</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>251404</v>
+        <v>249807</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3800387012804216</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3377868024766921</v>
+        <v>0.3394102132171141</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4239503201548698</v>
+        <v>0.421257400787185</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>91665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>75753</v>
+        <v>74373</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110165</v>
+        <v>110990</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2493178579628508</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2060403406775901</v>
+        <v>0.2022860043203364</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2996364447484368</v>
+        <v>0.3018798732533407</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2267,19 +2267,19 @@
         <v>45923</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33647</v>
+        <v>33555</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61018</v>
+        <v>61538</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2037944900167221</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1493159706460657</v>
+        <v>0.1489100305078146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2707808179813205</v>
+        <v>0.2730893622606619</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -2288,19 +2288,19 @@
         <v>137588</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115767</v>
+        <v>115731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161763</v>
+        <v>159690</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2320190512434256</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1952218244350482</v>
+        <v>0.1951603968217299</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2727853769820741</v>
+        <v>0.2692896892610998</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>57770</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43135</v>
+        <v>45621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73966</v>
+        <v>76191</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1571287412560242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1173230428969633</v>
+        <v>0.1240846609095883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2011791383035582</v>
+        <v>0.2072311827788009</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -2338,19 +2338,19 @@
         <v>34233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24413</v>
+        <v>24374</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46774</v>
+        <v>46625</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1519159094954971</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.108338361496487</v>
+        <v>0.1081645747377692</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2075705256496726</v>
+        <v>0.2069086937416919</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -2359,19 +2359,19 @@
         <v>92003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>75122</v>
+        <v>73738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>112918</v>
+        <v>111458</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1551478735576379</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1266812478352068</v>
+        <v>0.1243465665727068</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1904175010791104</v>
+        <v>0.1879557866671236</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>11493</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6149</v>
+        <v>6202</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18853</v>
+        <v>19154</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07303873446664393</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03907718681434372</v>
+        <v>0.03941372989610999</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1198165133905968</v>
+        <v>0.1217299250190124</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2484,19 +2484,19 @@
         <v>8197</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4048</v>
+        <v>3795</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14373</v>
+        <v>14827</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1176203921393838</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05808269356920664</v>
+        <v>0.05446144425623699</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2062391914607257</v>
+        <v>0.2127595817072529</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2505,19 +2505,19 @@
         <v>19690</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12243</v>
+        <v>11470</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29610</v>
+        <v>29267</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08672311253578481</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05392358919072762</v>
+        <v>0.05051745335982819</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1304190967899108</v>
+        <v>0.128905472924954</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>18029</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11483</v>
+        <v>10444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28119</v>
+        <v>27997</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1145795775524534</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07297720083208931</v>
+        <v>0.06637190639411762</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1787047843680587</v>
+        <v>0.1779299108440533</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2555,19 +2555,19 @@
         <v>7489</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3218</v>
+        <v>3318</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13839</v>
+        <v>14157</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1074536952781213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04617126387276671</v>
+        <v>0.04761666193087045</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1985745229164138</v>
+        <v>0.2031392153926274</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -2576,19 +2576,19 @@
         <v>25518</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17123</v>
+        <v>16920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>38541</v>
+        <v>36923</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1123922818750705</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07541841689462163</v>
+        <v>0.07452221295530502</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1697525441992934</v>
+        <v>0.1626269325142146</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>60697</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47703</v>
+        <v>49269</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72649</v>
+        <v>73444</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3857449534899829</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3031628578421132</v>
+        <v>0.3131152466193882</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4617013849051826</v>
+        <v>0.466750047328121</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -2626,19 +2626,19 @@
         <v>19834</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12485</v>
+        <v>12965</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28381</v>
+        <v>29202</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2845975381439046</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1791473881573153</v>
+        <v>0.1860417070833478</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4072376973291479</v>
+        <v>0.4190218342077215</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>75</v>
@@ -2647,19 +2647,19 @@
         <v>80531</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65459</v>
+        <v>66071</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>95045</v>
+        <v>96541</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3546976675753878</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2883142245743999</v>
+        <v>0.2910075092345142</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4186243666408026</v>
+        <v>0.4252142569883655</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>38498</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28261</v>
+        <v>27911</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50671</v>
+        <v>50088</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2446657954963043</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1796034119808922</v>
+        <v>0.1773775697605756</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3220232366334441</v>
+        <v>0.3183176279017684</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -2697,19 +2697,19 @@
         <v>20940</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13891</v>
+        <v>13317</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29611</v>
+        <v>29744</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3004629864600072</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.199319793580594</v>
+        <v>0.1910814801763119</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4248951984670536</v>
+        <v>0.4267973321056304</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>56</v>
@@ -2718,19 +2718,19 @@
         <v>59438</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46760</v>
+        <v>46824</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>73584</v>
+        <v>73172</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2617927911308844</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2059552233065101</v>
+        <v>0.2062352158022585</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3241011852407126</v>
+        <v>0.322284647743482</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>28633</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20138</v>
+        <v>19343</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>40509</v>
+        <v>39866</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1819709389946154</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1279827329993524</v>
+        <v>0.1229267067760289</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.257443666485865</v>
+        <v>0.2533551866695821</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -2768,19 +2768,19 @@
         <v>13232</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7079</v>
+        <v>6455</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21411</v>
+        <v>20967</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1898653879785831</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1015784575538175</v>
+        <v>0.09261807720311603</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3072330138193259</v>
+        <v>0.3008582531359844</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -2789,19 +2789,19 @@
         <v>41865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30629</v>
+        <v>30446</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55574</v>
+        <v>55346</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1843941468828725</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1349047617731301</v>
+        <v>0.1340997047983667</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2447736310820103</v>
+        <v>0.2437699415547394</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>126379</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>104635</v>
+        <v>104339</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>151602</v>
+        <v>150835</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08914461976053349</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07380663958639287</v>
+        <v>0.07359817387306686</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.106935726475292</v>
+        <v>0.1063950837273277</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -2914,19 +2914,19 @@
         <v>114595</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>95523</v>
+        <v>94554</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>138962</v>
+        <v>136065</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1211566440811909</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1009921957701824</v>
+        <v>0.09996846663420686</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1469184294965911</v>
+        <v>0.1438564390710333</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>219</v>
@@ -2935,19 +2935,19 @@
         <v>240974</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>209303</v>
+        <v>212420</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>272736</v>
+        <v>273750</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1019552486066206</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.088555296406451</v>
+        <v>0.08987392918043913</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1153935679962253</v>
+        <v>0.1158224403319651</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>152166</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>129158</v>
+        <v>129897</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>178638</v>
+        <v>178300</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1073339909802384</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09110431081753406</v>
+        <v>0.0916261085433005</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1260062230495727</v>
+        <v>0.1257679505460884</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>100</v>
@@ -2985,19 +2985,19 @@
         <v>106567</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>88636</v>
+        <v>88542</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>128301</v>
+        <v>128661</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.112669100889039</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09371114145454947</v>
+        <v>0.0936115221311194</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1356477908830846</v>
+        <v>0.136027721085946</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>239</v>
@@ -3006,19 +3006,19 @@
         <v>258733</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>226990</v>
+        <v>230422</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>292712</v>
+        <v>291228</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1094690047553786</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09603870702525789</v>
+        <v>0.09749057347464515</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1238454244646218</v>
+        <v>0.1232173388709469</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>533997</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>496649</v>
+        <v>493185</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>570211</v>
+        <v>570795</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3766674989134754</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3503227817606219</v>
+        <v>0.3478796327113017</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4022116471485773</v>
+        <v>0.4026232288240893</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>299</v>
@@ -3056,19 +3056,19 @@
         <v>323636</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>293552</v>
+        <v>294254</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>354836</v>
+        <v>353271</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3421667875305067</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.31036094818494</v>
+        <v>0.311102948350389</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3751538430376291</v>
+        <v>0.373498824219297</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>803</v>
@@ -3077,19 +3077,19 @@
         <v>857633</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>809434</v>
+        <v>809880</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>910399</v>
+        <v>903961</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.362860942851103</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3424682398486252</v>
+        <v>0.3426569348880494</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3851858173789039</v>
+        <v>0.3824619248231702</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>339361</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>307305</v>
+        <v>307517</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>372408</v>
+        <v>371500</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2393765419378339</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2167650824445299</v>
+        <v>0.2169142507855775</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2626866648643879</v>
+        <v>0.2620461850434894</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>190</v>
@@ -3127,19 +3127,19 @@
         <v>207347</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>183386</v>
+        <v>182913</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>233730</v>
+        <v>237211</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2192195850751204</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1938861528472726</v>
+        <v>0.1933866580639739</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2471135367402901</v>
+        <v>0.2507932575447877</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>509</v>
@@ -3148,19 +3148,19 @@
         <v>546709</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>509106</v>
+        <v>504034</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>592141</v>
+        <v>590425</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2313100950787336</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2154006762952727</v>
+        <v>0.2132547823698439</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2505325650429532</v>
+        <v>0.2498065012032147</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>265785</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>236520</v>
+        <v>238958</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>298728</v>
+        <v>296542</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1874773484079188</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1668346630364192</v>
+        <v>0.1685543882621761</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2107148524904444</v>
+        <v>0.2091730007490554</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>181</v>
@@ -3198,19 +3198,19 @@
         <v>193697</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>168967</v>
+        <v>170208</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>221466</v>
+        <v>218807</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.204787882424143</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1786421911085249</v>
+        <v>0.1799536661466389</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2341466500202482</v>
+        <v>0.2313353639212265</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>434</v>
@@ -3219,19 +3219,19 @@
         <v>459482</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>420205</v>
+        <v>419821</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>500710</v>
+        <v>497415</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1944047087081642</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1777870129115074</v>
+        <v>0.1776245907710009</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2118481542528244</v>
+        <v>0.2104541324243535</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>4173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9491</v>
+        <v>9635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05275065361869447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01375581825181665</v>
+        <v>0.01346245942732638</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1199752880478095</v>
+        <v>0.1217909442805623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3585,19 +3585,19 @@
         <v>6522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2789</v>
+        <v>2750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12241</v>
+        <v>12278</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07100516303329267</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03036331348783446</v>
+        <v>0.029937898246971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1332685014952149</v>
+        <v>0.133670570816749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -3606,19 +3606,19 @@
         <v>10695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5700</v>
+        <v>5794</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18988</v>
+        <v>18571</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06255835892070546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03334052054701636</v>
+        <v>0.03389222542129937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1110666457791439</v>
+        <v>0.108622629299618</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>10322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5172</v>
+        <v>5948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17873</v>
+        <v>17460</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1304768022721888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06537578177793262</v>
+        <v>0.07519094515823858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2259314338124687</v>
+        <v>0.2207139518129179</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3656,19 +3656,19 @@
         <v>13453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7429</v>
+        <v>7824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20263</v>
+        <v>20497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1464597326082313</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08087921277633085</v>
+        <v>0.08517277370195123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2206014484066005</v>
+        <v>0.2231444532986321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3677,19 +3677,19 @@
         <v>23775</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15886</v>
+        <v>15840</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33605</v>
+        <v>33194</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1390640432129461</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09291995242571198</v>
+        <v>0.09265350668234681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1965612627681699</v>
+        <v>0.1941583474084865</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>25435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17805</v>
+        <v>17476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35055</v>
+        <v>34602</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3215147574595444</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2250704050166668</v>
+        <v>0.2209042216211438</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4431218418297598</v>
+        <v>0.4373912786025728</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -3727,19 +3727,19 @@
         <v>30754</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23186</v>
+        <v>22075</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39896</v>
+        <v>39133</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3348064702908286</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2524166509601034</v>
+        <v>0.2403219901182758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4343351061255543</v>
+        <v>0.426031481781335</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -3748,19 +3748,19 @@
         <v>56188</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45601</v>
+        <v>44832</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68491</v>
+        <v>68640</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3286560724873777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2667262550120551</v>
+        <v>0.2622283454445463</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.400615767973082</v>
+        <v>0.4014897329330222</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>25825</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17739</v>
+        <v>17902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35774</v>
+        <v>35165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3264471455929734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2242371406757257</v>
+        <v>0.2262891316884675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4522136992641169</v>
+        <v>0.4445178524406073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3798,19 +3798,19 @@
         <v>22445</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14510</v>
+        <v>15027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31076</v>
+        <v>31776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2443508833070726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1579709541110851</v>
+        <v>0.163595895774284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3383143005660235</v>
+        <v>0.345936837608737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -3819,19 +3819,19 @@
         <v>48270</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36507</v>
+        <v>37394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60261</v>
+        <v>60679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2823388144069919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.213537037889225</v>
+        <v>0.2187235024880641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3524774589087217</v>
+        <v>0.354924132481504</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>13354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7101</v>
+        <v>7532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20946</v>
+        <v>21852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1688106410565988</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08976155649799668</v>
+        <v>0.09520709303094343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2647717045303883</v>
+        <v>0.2762295788852897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3869,19 +3869,19 @@
         <v>18681</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12084</v>
+        <v>11693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27348</v>
+        <v>27578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2033777507605748</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1315577290195535</v>
+        <v>0.1273008172530332</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2977348710959452</v>
+        <v>0.300232099100272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -3890,19 +3890,19 @@
         <v>32036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22223</v>
+        <v>23018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43399</v>
+        <v>43429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1873827109719789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1299856895776511</v>
+        <v>0.1346387256342164</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2538512267206411</v>
+        <v>0.2540243630419631</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>21128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13633</v>
+        <v>13765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32886</v>
+        <v>31973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0613862444485517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03961074228889522</v>
+        <v>0.03999398521104045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09554682885245851</v>
+        <v>0.09289556256522907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -4015,19 +4015,19 @@
         <v>21635</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14690</v>
+        <v>14724</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31620</v>
+        <v>31972</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07904100077961249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05366929867277209</v>
+        <v>0.05379447163701074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1155206443435549</v>
+        <v>0.1168073835984108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -4036,19 +4036,19 @@
         <v>42763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32908</v>
+        <v>32471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58516</v>
+        <v>57856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06920689788382872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0532576138181778</v>
+        <v>0.05255085305759479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09470156417355975</v>
+        <v>0.09363269007101016</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>34802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24154</v>
+        <v>24559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45841</v>
+        <v>46040</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1011146787563919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07017812180403064</v>
+        <v>0.07135360040886221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1331881595342128</v>
+        <v>0.1337658726899804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -4086,19 +4086,19 @@
         <v>34418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24962</v>
+        <v>24158</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45893</v>
+        <v>44735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1257421159166225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09119806859589651</v>
+        <v>0.08825973376596502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1676671173120845</v>
+        <v>0.1634373617434651</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -4107,19 +4107,19 @@
         <v>69220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54808</v>
+        <v>55135</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>85058</v>
+        <v>85874</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1120240703910061</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08869935165477992</v>
+        <v>0.08922863872948114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1376564968159868</v>
+        <v>0.1389771849093649</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>110405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93037</v>
+        <v>94521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>128096</v>
+        <v>128601</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3207732475946516</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2703121026825812</v>
+        <v>0.2746216962392725</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3721728793390257</v>
+        <v>0.3736378391776585</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>110</v>
@@ -4157,19 +4157,19 @@
         <v>107061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93437</v>
+        <v>91634</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123339</v>
+        <v>121318</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3911388321029444</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3413649520284741</v>
+        <v>0.3347762272633894</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4506075664661597</v>
+        <v>0.443227536720887</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>215</v>
@@ -4178,19 +4178,19 @@
         <v>217467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>196867</v>
+        <v>193789</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241774</v>
+        <v>240874</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3519435928484052</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3186052617904562</v>
+        <v>0.3136241230337692</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3912826580052096</v>
+        <v>0.3898257340150462</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>103681</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88402</v>
+        <v>88373</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122754</v>
+        <v>121039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3012374736012099</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2568432141276119</v>
+        <v>0.2567605127795308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3566516420183516</v>
+        <v>0.3516677450076248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -4228,19 +4228,19 @@
         <v>68782</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55178</v>
+        <v>55199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82465</v>
+        <v>82141</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2512912243811501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2015868332718577</v>
+        <v>0.2016667907536471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3012795049517853</v>
+        <v>0.3000973828916864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -4249,19 +4249,19 @@
         <v>172464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>152421</v>
+        <v>152516</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195499</v>
+        <v>196188</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2791124270575291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2466755076434109</v>
+        <v>0.2468279892447313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3163908989750263</v>
+        <v>0.3175063838190731</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>74168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58436</v>
+        <v>60001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90549</v>
+        <v>92320</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2154883555991949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1697793441711615</v>
+        <v>0.174327663916511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.263081977909061</v>
+        <v>0.2682265980436938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -4299,19 +4299,19 @@
         <v>41820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31002</v>
+        <v>31759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54809</v>
+        <v>54034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1527868268196705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1132641658625809</v>
+        <v>0.1160277902107463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2002388631808747</v>
+        <v>0.1974081309779434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -4320,19 +4320,19 @@
         <v>115988</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97481</v>
+        <v>96296</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>136252</v>
+        <v>134611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1877130118192309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1577619290410928</v>
+        <v>0.1558427110674408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2205068279256894</v>
+        <v>0.2178518789163426</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>29307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20367</v>
+        <v>19135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42834</v>
+        <v>41699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06376754791529091</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04431571460853988</v>
+        <v>0.041635939597014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09320065063335259</v>
+        <v>0.09073138649450958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -4445,19 +4445,19 @@
         <v>23880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15862</v>
+        <v>16235</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35377</v>
+        <v>34888</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07523258611067239</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04997349415061888</v>
+        <v>0.05114680791056912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.111452815191924</v>
+        <v>0.1099117931219512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -4466,19 +4466,19 @@
         <v>53187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40114</v>
+        <v>39986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67849</v>
+        <v>69311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06845114276111731</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05162728051632602</v>
+        <v>0.05146175126254997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08732169497530086</v>
+        <v>0.08920319635573933</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>54525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41867</v>
+        <v>41271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69918</v>
+        <v>69811</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1186387172645903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09109702292325376</v>
+        <v>0.08980102314842497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1521323218367256</v>
+        <v>0.1518983909373174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -4516,19 +4516,19 @@
         <v>46211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34904</v>
+        <v>34829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59390</v>
+        <v>58835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1455865168038329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1099642323136852</v>
+        <v>0.1097275328013944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.18710639173598</v>
+        <v>0.185357867440022</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -4537,19 +4537,19 @@
         <v>100736</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81987</v>
+        <v>82850</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123412</v>
+        <v>122361</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1296471912772807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1055177040437066</v>
+        <v>0.1066275280095506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1588313333638916</v>
+        <v>0.1574789087211777</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>167989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147303</v>
+        <v>148776</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190444</v>
+        <v>190847</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3655212105063678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3205110884709634</v>
+        <v>0.3237150671155448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4143802990796595</v>
+        <v>0.4152560009582397</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>116</v>
@@ -4587,19 +4587,19 @@
         <v>113904</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>96901</v>
+        <v>98131</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>130484</v>
+        <v>131376</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.358851141818507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3052839580297825</v>
+        <v>0.3091581404085984</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4110852645178487</v>
+        <v>0.4138945101823732</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>275</v>
@@ -4608,19 +4608,19 @@
         <v>281893</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>256337</v>
+        <v>255473</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>310921</v>
+        <v>309658</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3627964137115035</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3299062304549601</v>
+        <v>0.3287939613115454</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4001550915072899</v>
+        <v>0.3985294785783862</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>133095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113942</v>
+        <v>114741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153679</v>
+        <v>154296</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2895969194344299</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.247922678991385</v>
+        <v>0.2496612152687353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.334385272474894</v>
+        <v>0.3357268037920053</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -4658,19 +4658,19 @@
         <v>75520</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61101</v>
+        <v>61782</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91110</v>
+        <v>91397</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2379229278492559</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1924968186128986</v>
+        <v>0.194642920201205</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2870386017750594</v>
+        <v>0.287942911382278</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -4679,19 +4679,19 @@
         <v>208615</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183273</v>
+        <v>184640</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>235025</v>
+        <v>232941</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2684875226293593</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2358719189716591</v>
+        <v>0.2376321037008939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.302476462827418</v>
+        <v>0.2997948323524091</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>74672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59130</v>
+        <v>59945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93746</v>
+        <v>91805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1624756048793211</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1286578293001893</v>
+        <v>0.1304314036652976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2039792336135</v>
+        <v>0.1997551335513563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -4729,19 +4729,19 @@
         <v>57898</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45667</v>
+        <v>45983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72384</v>
+        <v>72230</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1824068274177319</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1438709539523617</v>
+        <v>0.1448683785554149</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2280443032874815</v>
+        <v>0.2275587298719965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -4750,19 +4750,19 @@
         <v>132570</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>111957</v>
+        <v>113723</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>156423</v>
+        <v>157009</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1706177296207392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.144088872685745</v>
+        <v>0.1463608733961076</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.201316429923094</v>
+        <v>0.2020706280726709</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>31842</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21472</v>
+        <v>21949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44999</v>
+        <v>45424</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08659091503915166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05839019245181666</v>
+        <v>0.05968771722908366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1223691173377961</v>
+        <v>0.1235262707945834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -4875,19 +4875,19 @@
         <v>16530</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10436</v>
+        <v>10125</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26297</v>
+        <v>25235</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06799108458890835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04292424861095021</v>
+        <v>0.04164798848147226</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1081644198514138</v>
+        <v>0.1037977008106028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -4896,19 +4896,19 @@
         <v>48372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35856</v>
+        <v>36418</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64905</v>
+        <v>64907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07918814460482045</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05869913173136366</v>
+        <v>0.05961845283822655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1062550720204764</v>
+        <v>0.1062570809417323</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>48187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35150</v>
+        <v>36405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>62552</v>
+        <v>62524</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1310395207958496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09558561050709866</v>
+        <v>0.09900097311841236</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1701039103659464</v>
+        <v>0.1700270101013604</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -4946,19 +4946,19 @@
         <v>23214</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15296</v>
+        <v>14560</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34404</v>
+        <v>33514</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0954842123901201</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06291681714917327</v>
+        <v>0.05988861299965362</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1415134887965775</v>
+        <v>0.1378521375776186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>66</v>
@@ -4967,19 +4967,19 @@
         <v>71401</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>55448</v>
+        <v>55015</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>88923</v>
+        <v>88590</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1168884355720583</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09077317859274309</v>
+        <v>0.09006378037410984</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1455737627427617</v>
+        <v>0.1450289237725456</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>134368</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116758</v>
+        <v>114621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156654</v>
+        <v>155021</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.36540083398361</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3175109118585415</v>
+        <v>0.3116994809560772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4260047148536091</v>
+        <v>0.4215649828736298</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -5017,19 +5017,19 @@
         <v>100793</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85262</v>
+        <v>84741</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>117118</v>
+        <v>117555</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4145828949507205</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3507008330908311</v>
+        <v>0.3485586395216255</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4817325009982383</v>
+        <v>0.483532352412332</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>219</v>
@@ -5038,19 +5038,19 @@
         <v>235161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>212228</v>
+        <v>209564</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>259839</v>
+        <v>259745</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3849753945045118</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3474327719918947</v>
+        <v>0.3430714782027887</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4253752884423433</v>
+        <v>0.4252212114708673</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>87630</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70564</v>
+        <v>70468</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107363</v>
+        <v>103551</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2383018340329021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1918919958143708</v>
+        <v>0.191631240643919</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2919629338530398</v>
+        <v>0.2815958592349988</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -5088,19 +5088,19 @@
         <v>49673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36723</v>
+        <v>38972</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64048</v>
+        <v>65687</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2043166175186791</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.151050721074053</v>
+        <v>0.1603025462328041</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2634461381333342</v>
+        <v>0.2701840456886707</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>123</v>
@@ -5109,19 +5109,19 @@
         <v>137303</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>116597</v>
+        <v>117683</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162683</v>
+        <v>159630</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2247756485825103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1908778945770039</v>
+        <v>0.1926563586376823</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.266324423146948</v>
+        <v>0.2613257738313023</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>65701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50773</v>
+        <v>52083</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84046</v>
+        <v>82603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1786668961484866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1380720794654695</v>
+        <v>0.1416344934018872</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2285546937173878</v>
+        <v>0.224631957485199</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -5159,19 +5159,19 @@
         <v>52909</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39321</v>
+        <v>41977</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66656</v>
+        <v>68256</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.217625190551572</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1617360742950478</v>
+        <v>0.1726604873037847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2741714729168041</v>
+        <v>0.2807542810536234</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>103</v>
@@ -5180,19 +5180,19 @@
         <v>118609</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100311</v>
+        <v>98102</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>139721</v>
+        <v>140419</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1941723767360991</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1642158635879885</v>
+        <v>0.1605998759233373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.228732973427328</v>
+        <v>0.2298756329540903</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>10279</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4879</v>
+        <v>5144</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18731</v>
+        <v>19967</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06202216783761102</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02944264405270584</v>
+        <v>0.03103716513778252</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1130245187455777</v>
+        <v>0.1204808250954366</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -5305,19 +5305,19 @@
         <v>15696</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8913</v>
+        <v>8991</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25086</v>
+        <v>25795</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1482472066709854</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08418037529827137</v>
+        <v>0.08491615210892024</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2369327123742568</v>
+        <v>0.2436310053294776</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -5326,19 +5326,19 @@
         <v>25975</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16866</v>
+        <v>17033</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38260</v>
+        <v>38511</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09563494656211678</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06209784310365523</v>
+        <v>0.06271374685391563</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1408665745998391</v>
+        <v>0.1417892744208115</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>19571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11122</v>
+        <v>11643</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29184</v>
+        <v>31126</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1180933542891217</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06711258554150959</v>
+        <v>0.07025525004085095</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1760978080786094</v>
+        <v>0.1878160689889492</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -5376,19 +5376,19 @@
         <v>17831</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10798</v>
+        <v>10842</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27515</v>
+        <v>27075</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1684104920687442</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.101986242764378</v>
+        <v>0.10239571455232</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2598708232581075</v>
+        <v>0.2557195863083696</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -5397,19 +5397,19 @@
         <v>37402</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>27884</v>
+        <v>26203</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52153</v>
+        <v>51222</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1377082926077378</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1026621927482064</v>
+        <v>0.09647548323295997</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1920181340170058</v>
+        <v>0.1885896696200775</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>64675</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>51030</v>
+        <v>51326</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78154</v>
+        <v>78571</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3902524664884575</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3079158739559855</v>
+        <v>0.309706882404881</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4715854249056524</v>
+        <v>0.474098923414433</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>33</v>
@@ -5447,19 +5447,19 @@
         <v>38500</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28318</v>
+        <v>28366</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>49373</v>
+        <v>51028</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3636188992749516</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2674516995217789</v>
+        <v>0.2679123539627384</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4663165933618187</v>
+        <v>0.4819454482151269</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>91</v>
@@ -5468,19 +5468,19 @@
         <v>103175</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>86651</v>
+        <v>86334</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>119215</v>
+        <v>120997</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3798700043463202</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3190325881304834</v>
+        <v>0.3178647200099398</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4389292695436302</v>
+        <v>0.4454901060286115</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>43195</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31812</v>
+        <v>32161</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55440</v>
+        <v>56740</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2606384169648677</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1919580643055134</v>
+        <v>0.1940587210686941</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3345297655905352</v>
+        <v>0.3423701446131807</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -5518,19 +5518,19 @@
         <v>19578</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12125</v>
+        <v>12021</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29018</v>
+        <v>30379</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1849133691997492</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1145169622748773</v>
+        <v>0.1135389388877594</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2740646385536057</v>
+        <v>0.2869186242071385</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>56</v>
@@ -5539,19 +5539,19 @@
         <v>62773</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>48140</v>
+        <v>49070</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76905</v>
+        <v>77974</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2311188097965801</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1772427864711965</v>
+        <v>0.1806673428677334</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2831514755300074</v>
+        <v>0.2870876151873284</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>28007</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18648</v>
+        <v>18562</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39716</v>
+        <v>39545</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1689935944199421</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1125222116469367</v>
+        <v>0.1120044776070628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2396464003948353</v>
+        <v>0.238616444416806</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -5589,19 +5589,19 @@
         <v>14274</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7905</v>
+        <v>8586</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23072</v>
+        <v>24303</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1348100327855697</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07465684673065356</v>
+        <v>0.08108943019166208</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2179081262947885</v>
+        <v>0.2295329684023193</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -5610,19 +5610,19 @@
         <v>42280</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30117</v>
+        <v>30233</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56109</v>
+        <v>55118</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1556679466872451</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1108870275358584</v>
+        <v>0.1113128759347768</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2065837512376162</v>
+        <v>0.2029350680973209</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>96729</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77570</v>
+        <v>80227</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>115322</v>
+        <v>116263</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06829499539200556</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05476770450599199</v>
+        <v>0.05664429161207275</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08142249465638834</v>
+        <v>0.08208729065745134</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>84</v>
@@ -5735,19 +5735,19 @@
         <v>84263</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>67598</v>
+        <v>68472</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101482</v>
+        <v>102500</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08165156853694935</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06550287003920224</v>
+        <v>0.06634984902463406</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09833720478340102</v>
+        <v>0.09932382500429551</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>171</v>
@@ -5756,19 +5756,19 @@
         <v>180992</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>155130</v>
+        <v>153528</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>208556</v>
+        <v>208208</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07392487515702846</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06336199864981426</v>
+        <v>0.06270741285928937</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08518324652685341</v>
+        <v>0.08504142846468098</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>167407</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>142413</v>
+        <v>144513</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>192282</v>
+        <v>193903</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1181972460484602</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1005503390165801</v>
+        <v>0.1020325672779539</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1357602011219063</v>
+        <v>0.1369042297876654</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>132</v>
@@ -5806,19 +5806,19 @@
         <v>135127</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>113424</v>
+        <v>116090</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>156969</v>
+        <v>158623</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1309392357262057</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1099085181100811</v>
+        <v>0.1124920503909564</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1521046662480203</v>
+        <v>0.1537076005725147</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>290</v>
@@ -5827,19 +5827,19 @@
         <v>302534</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>269779</v>
+        <v>270908</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>336344</v>
+        <v>335362</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1235680750084338</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1101894885754972</v>
+        <v>0.1106508417135358</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1373777825356522</v>
+        <v>0.1369764672588847</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>502873</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>465928</v>
+        <v>468855</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>537120</v>
+        <v>540989</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3550515545853672</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3289672371193638</v>
+        <v>0.3310334688535518</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3792316929997656</v>
+        <v>0.3819636291997194</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>385</v>
@@ -5877,19 +5877,19 @@
         <v>391011</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>359586</v>
+        <v>355081</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>424130</v>
+        <v>423710</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3788934002234277</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3484425949953928</v>
+        <v>0.3440769632424327</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4109860617682692</v>
+        <v>0.410579288488251</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>856</v>
@@ -5898,19 +5898,19 @@
         <v>893883</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>849470</v>
+        <v>846785</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>942768</v>
+        <v>939097</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3651010427933009</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3469604560093852</v>
+        <v>0.3458641362735675</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3850675144589097</v>
+        <v>0.3835681745807355</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>393427</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>359839</v>
+        <v>359948</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>425761</v>
+        <v>425197</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2777776071785972</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2540633763909099</v>
+        <v>0.2541402709769292</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3006068983653278</v>
+        <v>0.3002091611637761</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>230</v>
@@ -5948,19 +5948,19 @@
         <v>235999</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>207643</v>
+        <v>208557</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>263846</v>
+        <v>265347</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2286850464460331</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.201207912890878</v>
+        <v>0.2020935884626134</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2556690772006151</v>
+        <v>0.2571241280924418</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>601</v>
@@ -5969,19 +5969,19 @@
         <v>629425</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>586490</v>
+        <v>586879</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>677291</v>
+        <v>674958</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2570847834069512</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2395481238846786</v>
+        <v>0.2397068697642807</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2766354061435887</v>
+        <v>0.2756823061215344</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>255902</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>225428</v>
+        <v>228112</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>287605</v>
+        <v>288842</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1806785967955699</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1591625262224855</v>
+        <v>0.1610575965564047</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2030626933642761</v>
+        <v>0.2039359655800821</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>177</v>
@@ -6019,19 +6019,19 @@
         <v>185582</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>161611</v>
+        <v>160204</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>211973</v>
+        <v>213987</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1798307490673842</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1566027130623052</v>
+        <v>0.1552394763609165</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2054038566567783</v>
+        <v>0.2073556817772519</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>407</v>
@@ -6040,19 +6040,19 @@
         <v>441484</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>404723</v>
+        <v>401822</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>482610</v>
+        <v>478799</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1803212236342857</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1653063986220363</v>
+        <v>0.1641214643325679</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1971191984341979</v>
+        <v>0.1955622952325166</v>
       </c>
     </row>
     <row r="39">
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6634</v>
+        <v>7691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04083328849285487</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2203515100426633</v>
+        <v>0.2554770425037573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9345</v>
+        <v>8130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1053669854206094</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3317729290518575</v>
+        <v>0.2886203966535986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6427,19 +6427,19 @@
         <v>4197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1176</v>
+        <v>1138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11755</v>
+        <v>10824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07202705080715986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02018137690356656</v>
+        <v>0.01952223558635596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2017383502078037</v>
+        <v>0.1857578474210804</v>
       </c>
     </row>
     <row r="5">
@@ -6472,16 +6472,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6919</v>
+        <v>6817</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04700296760697013</v>
+        <v>0.04700296760697012</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2456327717748349</v>
+        <v>0.2420318863000219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6362</v>
+        <v>8538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02271990400984177</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1091819372618564</v>
+        <v>0.1465171187281558</v>
       </c>
     </row>
     <row r="6">
@@ -6519,19 +6519,19 @@
         <v>10588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3098</v>
+        <v>3205</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20256</v>
+        <v>19719</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3517079925123481</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1028917268655485</v>
+        <v>0.1064695669873214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6728501827019012</v>
+        <v>0.6549919909575849</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -6540,19 +6540,19 @@
         <v>10032</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4766</v>
+        <v>4913</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16949</v>
+        <v>17019</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3561612768046638</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1692224683693103</v>
+        <v>0.1744221434898195</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6017431318646786</v>
+        <v>0.6042118767677871</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -6561,19 +6561,19 @@
         <v>20620</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11246</v>
+        <v>11615</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31389</v>
+        <v>31827</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3538605840783952</v>
+        <v>0.3538605840783953</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1930001235349036</v>
+        <v>0.1993277242844507</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5386674748191075</v>
+        <v>0.5461904435722178</v>
       </c>
     </row>
     <row r="7">
@@ -6590,19 +6590,19 @@
         <v>9480</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3337</v>
+        <v>2997</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19096</v>
+        <v>18369</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3148935788300164</v>
+        <v>0.3148935788300163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1108540190249944</v>
+        <v>0.09955861965810629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6343247549508243</v>
+        <v>0.6101733809614938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6611,19 +6611,19 @@
         <v>8320</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2818</v>
+        <v>2810</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15927</v>
+        <v>17041</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.295385522380688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1000585025895325</v>
+        <v>0.09977626847269162</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5654538364716809</v>
+        <v>0.6049935096653555</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -6632,19 +6632,19 @@
         <v>17800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8575</v>
+        <v>8661</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28837</v>
+        <v>27494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3054639365645866</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1471637551451344</v>
+        <v>0.1486288861671835</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4948770927740198</v>
+        <v>0.4718265403988812</v>
       </c>
     </row>
     <row r="8">
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20609</v>
+        <v>19590</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2925651401647805</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6845780207470425</v>
+        <v>0.6507149713478416</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -6682,19 +6682,19 @@
         <v>5523</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1625</v>
+        <v>1600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12925</v>
+        <v>12447</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1960832477870687</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0577010730301086</v>
+        <v>0.056813313723879</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4588724183908915</v>
+        <v>0.4419157964797386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -6703,19 +6703,19 @@
         <v>14331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5199</v>
+        <v>5784</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28206</v>
+        <v>27796</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2459285245400166</v>
+        <v>0.2459285245400167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08921507805169754</v>
+        <v>0.0992684448166829</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4840527411460862</v>
+        <v>0.4770188517994375</v>
       </c>
     </row>
     <row r="9">
@@ -6807,19 +6807,19 @@
         <v>14420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6974</v>
+        <v>6672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26414</v>
+        <v>27242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.121644869000086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05883585793645055</v>
+        <v>0.05628134405035827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2228286774185781</v>
+        <v>0.2298066301245921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -6828,19 +6828,19 @@
         <v>15409</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9025</v>
+        <v>8385</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25634</v>
+        <v>24263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1646606105635874</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09644530099909911</v>
+        <v>0.08960291456839783</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2739339989973728</v>
+        <v>0.2592782191457687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -6849,19 +6849,19 @@
         <v>29829</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19119</v>
+        <v>18624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44283</v>
+        <v>42649</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1406217918390953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09013263758484866</v>
+        <v>0.08780030477923501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2087661888740519</v>
+        <v>0.2010603927395389</v>
       </c>
     </row>
     <row r="11">
@@ -6878,19 +6878,19 @@
         <v>11381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4484</v>
+        <v>3964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23126</v>
+        <v>22520</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09600942179158981</v>
+        <v>0.09600942179158982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03782913437879919</v>
+        <v>0.03344135793249976</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.195089357961844</v>
+        <v>0.1899763491325941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -6899,19 +6899,19 @@
         <v>11828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6171</v>
+        <v>6194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20797</v>
+        <v>19890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1264011598420809</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06594788340157644</v>
+        <v>0.0661874495892264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2222394101150816</v>
+        <v>0.2125529993217767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -6920,19 +6920,19 @@
         <v>23210</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14304</v>
+        <v>13438</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36411</v>
+        <v>37142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.109417110394985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0674337647385409</v>
+        <v>0.06335006636716853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1716508329735585</v>
+        <v>0.1750983299762432</v>
       </c>
     </row>
     <row r="12">
@@ -6949,19 +6949,19 @@
         <v>39510</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26989</v>
+        <v>27484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53498</v>
+        <v>54068</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3333017456071222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2276769728117096</v>
+        <v>0.2318489425341397</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4513047304998439</v>
+        <v>0.4561117982536682</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -6970,19 +6970,19 @@
         <v>28251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19267</v>
+        <v>19814</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37614</v>
+        <v>37735</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3018934397335792</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2058890254588866</v>
+        <v>0.211737786807211</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4019537834692575</v>
+        <v>0.403244241326873</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -6991,19 +6991,19 @@
         <v>67761</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51467</v>
+        <v>51496</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>85985</v>
+        <v>83729</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3194455856200547</v>
+        <v>0.3194455856200546</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2426320982495404</v>
+        <v>0.2427662356127661</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4053598765788768</v>
+        <v>0.3947256354028029</v>
       </c>
     </row>
     <row r="13">
@@ -7020,19 +7020,19 @@
         <v>33739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21949</v>
+        <v>21556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48731</v>
+        <v>48632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2846149438696255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1851604501100906</v>
+        <v>0.1818468006118631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4110870557054952</v>
+        <v>0.4102588522167876</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -7041,19 +7041,19 @@
         <v>23082</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15258</v>
+        <v>15767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32969</v>
+        <v>32567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2466602625762042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1630452964079085</v>
+        <v>0.1684905593517038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3523143452439971</v>
+        <v>0.3480179622317665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -7062,19 +7062,19 @@
         <v>56821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43602</v>
+        <v>42048</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75542</v>
+        <v>73958</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2678707699438742</v>
+        <v>0.2678707699438741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.205552941385158</v>
+        <v>0.1982276578556005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3561268102112106</v>
+        <v>0.3486593399310253</v>
       </c>
     </row>
     <row r="14">
@@ -7091,19 +7091,19 @@
         <v>19492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10293</v>
+        <v>10013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33737</v>
+        <v>33248</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1644290197315764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08683196952713286</v>
+        <v>0.0844645756741724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2845995093258504</v>
+        <v>0.2804739088571729</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -7112,19 +7112,19 @@
         <v>15009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8625</v>
+        <v>8583</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23671</v>
+        <v>24083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1603845272845482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09216456826571068</v>
+        <v>0.09172136370210793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2529527772357809</v>
+        <v>0.2573557542815134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -7133,19 +7133,19 @@
         <v>34500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22179</v>
+        <v>23355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50213</v>
+        <v>50987</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1626447422019909</v>
+        <v>0.162644742201991</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1045580279363982</v>
+        <v>0.110100698260485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2367193665388775</v>
+        <v>0.2403690074103144</v>
       </c>
     </row>
     <row r="15">
@@ -7237,19 +7237,19 @@
         <v>18527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11761</v>
+        <v>11083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28657</v>
+        <v>29569</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.153063602745547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0971674695659575</v>
+        <v>0.0915632704352573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2367562045325431</v>
+        <v>0.2442856217802234</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -7258,19 +7258,19 @@
         <v>14606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9313</v>
+        <v>9349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21800</v>
+        <v>20758</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1392551356351181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08878953531638847</v>
+        <v>0.08913990903461488</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2078494738973042</v>
+        <v>0.1979152018424393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -7279,19 +7279,19 @@
         <v>33133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24017</v>
+        <v>23643</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45848</v>
+        <v>46411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1466531061872371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.106304583145789</v>
+        <v>0.1046492172877552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2029339160172006</v>
+        <v>0.2054238788689128</v>
       </c>
     </row>
     <row r="17">
@@ -7308,19 +7308,19 @@
         <v>18336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10718</v>
+        <v>10903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27322</v>
+        <v>28273</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1514818321899933</v>
+        <v>0.1514818321899932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.088547879100098</v>
+        <v>0.09007644858134148</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2257210141939158</v>
+        <v>0.2335826907040426</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -7329,19 +7329,19 @@
         <v>14050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8580</v>
+        <v>8746</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20830</v>
+        <v>20918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1339556655355925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08180753469527235</v>
+        <v>0.08338780185201035</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1985988884795679</v>
+        <v>0.1994342915809204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -7350,19 +7350,19 @@
         <v>32386</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22041</v>
+        <v>22680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43548</v>
+        <v>43783</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1433454163141465</v>
+        <v>0.1433454163141464</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09755714398667729</v>
+        <v>0.1003876395994918</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.192752489036347</v>
+        <v>0.1937909668687</v>
       </c>
     </row>
     <row r="18">
@@ -7379,19 +7379,19 @@
         <v>33612</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23743</v>
+        <v>23030</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44008</v>
+        <v>44708</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2776900517301433</v>
+        <v>0.2776900517301432</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1961545099803447</v>
+        <v>0.1902634670806098</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.363574832533464</v>
+        <v>0.3693613855709416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -7400,19 +7400,19 @@
         <v>28537</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20738</v>
+        <v>21126</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36469</v>
+        <v>36162</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2720822079175995</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1977250236274757</v>
+        <v>0.2014199760176385</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3477001489705635</v>
+        <v>0.3447763035402833</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>72</v>
@@ -7421,19 +7421,19 @@
         <v>62150</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51014</v>
+        <v>50028</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76095</v>
+        <v>76007</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.275086644474844</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2258003785296306</v>
+        <v>0.221432199627662</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3368142697957536</v>
+        <v>0.3364249252821231</v>
       </c>
     </row>
     <row r="19">
@@ -7450,19 +7450,19 @@
         <v>32228</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22978</v>
+        <v>23375</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43187</v>
+        <v>43619</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2662546171321344</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1898374839885044</v>
+        <v>0.1931152568090888</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3567894298255671</v>
+        <v>0.3603604565144101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -7471,19 +7471,19 @@
         <v>26645</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19838</v>
+        <v>18903</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35235</v>
+        <v>34823</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2540437843759851</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1891367476541997</v>
+        <v>0.1802234677363038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3359407769730644</v>
+        <v>0.3320077449156748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -7492,19 +7492,19 @@
         <v>58873</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47337</v>
+        <v>46411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71995</v>
+        <v>71850</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2605858125695864</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2095243256053581</v>
+        <v>0.2054243724253538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3186666395813328</v>
+        <v>0.3180225302587239</v>
       </c>
     </row>
     <row r="20">
@@ -7521,19 +7521,19 @@
         <v>18339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10685</v>
+        <v>10572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29615</v>
+        <v>28592</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1515098962021822</v>
+        <v>0.1515098962021821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0882791092372404</v>
+        <v>0.08734083077851446</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2446694061257341</v>
+        <v>0.2362152321836812</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -7542,19 +7542,19 @@
         <v>21047</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14522</v>
+        <v>14564</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28765</v>
+        <v>28358</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2006632065357049</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1384551972960772</v>
+        <v>0.1388566182386967</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2742514749612517</v>
+        <v>0.2703686708122678</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -7563,19 +7563,19 @@
         <v>39386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28309</v>
+        <v>28369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51233</v>
+        <v>52689</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1743290204541861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1253011823043423</v>
+        <v>0.1255671554805385</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2267696739643484</v>
+        <v>0.2332109502347625</v>
       </c>
     </row>
     <row r="21">
@@ -7667,19 +7667,19 @@
         <v>29763</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19509</v>
+        <v>20796</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39389</v>
+        <v>41431</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2169756387873076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.142225201938297</v>
+        <v>0.15160741918444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2871507792146149</v>
+        <v>0.3020353485362319</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -7688,19 +7688,19 @@
         <v>18351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12525</v>
+        <v>12613</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25289</v>
+        <v>25038</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1511364508562684</v>
+        <v>0.1511364508562685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.103154220259066</v>
+        <v>0.1038787210696688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2082809160190305</v>
+        <v>0.2062088199079956</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -7709,19 +7709,19 @@
         <v>48114</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36069</v>
+        <v>37238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60887</v>
+        <v>61981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1860612697851406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1394816855414297</v>
+        <v>0.1440039785285257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2354553457256956</v>
+        <v>0.2396847852758358</v>
       </c>
     </row>
     <row r="23">
@@ -7738,19 +7738,19 @@
         <v>16124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10013</v>
+        <v>9352</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25474</v>
+        <v>24776</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1175479955699356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07299709832958975</v>
+        <v>0.06818070641424488</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1857096548335809</v>
+        <v>0.1806223463533196</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -7759,19 +7759,19 @@
         <v>14794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9734</v>
+        <v>9550</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21774</v>
+        <v>21447</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1218399665115239</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08017195071105664</v>
+        <v>0.078656065099412</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1793315863958268</v>
+        <v>0.1766329533433542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -7780,19 +7780,19 @@
         <v>30918</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21908</v>
+        <v>21797</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41647</v>
+        <v>41272</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1195632630360807</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08472008063977199</v>
+        <v>0.08429136526997584</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1610547620919667</v>
+        <v>0.1596024868756283</v>
       </c>
     </row>
     <row r="24">
@@ -7809,19 +7809,19 @@
         <v>53447</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42208</v>
+        <v>42648</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65404</v>
+        <v>65566</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3896317517076699</v>
+        <v>0.3896317517076698</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3077037262548484</v>
+        <v>0.3109068477234401</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4768036089519029</v>
+        <v>0.4779814962802357</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -7830,19 +7830,19 @@
         <v>38622</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30923</v>
+        <v>31357</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48258</v>
+        <v>47628</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3180885095527705</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2546781311246524</v>
+        <v>0.2582530496772819</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3974476656795143</v>
+        <v>0.3922587959856059</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -7851,19 +7851,19 @@
         <v>92069</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>77465</v>
+        <v>78948</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106971</v>
+        <v>107212</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3560390805783642</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2995656883444516</v>
+        <v>0.3053005112638311</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4136667186501489</v>
+        <v>0.4145990356797651</v>
       </c>
     </row>
     <row r="25">
@@ -7880,19 +7880,19 @@
         <v>23428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15167</v>
+        <v>15474</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33294</v>
+        <v>33794</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1707920043621676</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1105664666313678</v>
+        <v>0.1128081531375327</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2427204245436698</v>
+        <v>0.2463629462475769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -7901,19 +7901,19 @@
         <v>30591</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23045</v>
+        <v>23330</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38415</v>
+        <v>38937</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2519425551383417</v>
+        <v>0.2519425551383418</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1897933017385365</v>
+        <v>0.1921454809891399</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3163825186656051</v>
+        <v>0.3206771837147848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -7922,19 +7922,19 @@
         <v>54019</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43041</v>
+        <v>42917</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66800</v>
+        <v>67005</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2088957257211157</v>
+        <v>0.2088957257211158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1664425723381308</v>
+        <v>0.1659639936258516</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2583213914782339</v>
+        <v>0.2591149793200157</v>
       </c>
     </row>
     <row r="26">
@@ -7951,19 +7951,19 @@
         <v>14410</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8175</v>
+        <v>7878</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23253</v>
+        <v>22815</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1050526095729195</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05959426368652265</v>
+        <v>0.05743126931096129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1695204752779091</v>
+        <v>0.1663247068590446</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -7972,19 +7972,19 @@
         <v>19062</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12843</v>
+        <v>13218</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26640</v>
+        <v>26182</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1569925179410955</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1057695874451367</v>
+        <v>0.1088595004512566</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2194040621513999</v>
+        <v>0.2156329957085312</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -7993,19 +7993,19 @@
         <v>33472</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24314</v>
+        <v>25461</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45365</v>
+        <v>45086</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1294406608792988</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0940242187107088</v>
+        <v>0.09845821815551782</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1754311973595941</v>
+        <v>0.1743502749642058</v>
       </c>
     </row>
     <row r="27">
@@ -8097,19 +8097,19 @@
         <v>16892</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10149</v>
+        <v>10467</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24342</v>
+        <v>24315</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2462519640584632</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1479543366870005</v>
+        <v>0.1525893611094065</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3548441964352095</v>
+        <v>0.3544631626385036</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -8118,19 +8118,19 @@
         <v>5618</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2982</v>
+        <v>2681</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9928</v>
+        <v>10026</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1368699525964032</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07264624417357046</v>
+        <v>0.06530973106103977</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2418537200618478</v>
+        <v>0.2442588021883156</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -8139,19 +8139,19 @@
         <v>22511</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15450</v>
+        <v>15069</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30479</v>
+        <v>30755</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2053027246008057</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.140909158212884</v>
+        <v>0.1374321508705345</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2779755786540871</v>
+        <v>0.280491169984892</v>
       </c>
     </row>
     <row r="29">
@@ -8168,19 +8168,19 @@
         <v>4156</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1600</v>
+        <v>1659</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9088</v>
+        <v>10334</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06058478584795081</v>
+        <v>0.06058478584795084</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02332470444437022</v>
+        <v>0.02418053926288161</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1324873534398035</v>
+        <v>0.1506498516650563</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -8189,19 +8189,19 @@
         <v>3785</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1651</v>
+        <v>1356</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7703</v>
+        <v>7694</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09219918989953178</v>
+        <v>0.09219918989953174</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04023015916336471</v>
+        <v>0.03303749728849778</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.187650884295597</v>
+        <v>0.1874500531828374</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -8210,19 +8210,19 @@
         <v>7941</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4470</v>
+        <v>4186</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13716</v>
+        <v>13137</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07242024018377057</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0407710286438648</v>
+        <v>0.03817311532319273</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1250975710198599</v>
+        <v>0.1198149492461657</v>
       </c>
     </row>
     <row r="30">
@@ -8239,19 +8239,19 @@
         <v>27825</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20791</v>
+        <v>20131</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>36230</v>
+        <v>35139</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4056237815747539</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3030877726179996</v>
+        <v>0.2934704755333191</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5281477745309372</v>
+        <v>0.5122503196432864</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -8260,19 +8260,19 @@
         <v>17733</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12704</v>
+        <v>12396</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22615</v>
+        <v>22610</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.432008488586672</v>
+        <v>0.4320084885866718</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3094949277837992</v>
+        <v>0.3019891902400957</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5509493792245723</v>
+        <v>0.5508223498875137</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -8281,19 +8281,19 @@
         <v>45558</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37174</v>
+        <v>36806</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55166</v>
+        <v>55286</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4155013992105012</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3390372662650338</v>
+        <v>0.3356814758657181</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.503131361514484</v>
+        <v>0.5042248755700701</v>
       </c>
     </row>
     <row r="31">
@@ -8310,19 +8310,19 @@
         <v>17124</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10963</v>
+        <v>10705</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24513</v>
+        <v>24578</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2496214664606533</v>
+        <v>0.2496214664606534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.159822093526847</v>
+        <v>0.1560546213926723</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.357347205774749</v>
+        <v>0.3582833281021354</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -8331,19 +8331,19 @@
         <v>8023</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4477</v>
+        <v>4613</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12715</v>
+        <v>12699</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1954445455525932</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1090621545784732</v>
+        <v>0.1123853397925127</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3097522722814758</v>
+        <v>0.3093662309449225</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -8352,19 +8352,19 @@
         <v>25146</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18088</v>
+        <v>17610</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>34345</v>
+        <v>33854</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.229339304177395</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1649713560564798</v>
+        <v>0.1606091245326387</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3132319109149737</v>
+        <v>0.308760311351361</v>
       </c>
     </row>
     <row r="32">
@@ -8381,19 +8381,19 @@
         <v>2601</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7201</v>
+        <v>6973</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03791800205817882</v>
+        <v>0.03791800205817883</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01052938487437348</v>
+        <v>0.01045378093710781</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1049725435187587</v>
+        <v>0.1016435591056327</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -8402,19 +8402,19 @@
         <v>5889</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2672</v>
+        <v>2739</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10098</v>
+        <v>10246</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1434778233648</v>
+        <v>0.1434778233647999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06509412580569197</v>
+        <v>0.0667175473399067</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2460108430022573</v>
+        <v>0.2496199399183449</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -8423,19 +8423,19 @@
         <v>8491</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4121</v>
+        <v>4842</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13461</v>
+        <v>14106</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.07743633182752742</v>
+        <v>0.07743633182752743</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03758898202356032</v>
+        <v>0.04416315908391726</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1227701089461131</v>
+        <v>0.128654767198362</v>
       </c>
     </row>
     <row r="33">
@@ -8527,19 +8527,19 @@
         <v>80832</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64582</v>
+        <v>63445</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101662</v>
+        <v>99746</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1700081553252637</v>
+        <v>0.1700081553252636</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1358314143261152</v>
+        <v>0.1334394653503815</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.213819584699012</v>
+        <v>0.209789239977537</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>71</v>
@@ -8548,19 +8548,19 @@
         <v>56952</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45052</v>
+        <v>45994</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70663</v>
+        <v>71909</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1463680642702191</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1157859279123614</v>
+        <v>0.1182059256213533</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1816077647218861</v>
+        <v>0.1848098333718247</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>137</v>
@@ -8569,19 +8569,19 @@
         <v>137783</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>116527</v>
+        <v>118159</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>160161</v>
+        <v>161569</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1593687682876466</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1347828529969815</v>
+        <v>0.1366706485588706</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.185252490782928</v>
+        <v>0.1868813798898811</v>
       </c>
     </row>
     <row r="35">
@@ -8598,19 +8598,19 @@
         <v>49997</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>36865</v>
+        <v>37134</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67425</v>
+        <v>67262</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1051555808726941</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07753597493446296</v>
+        <v>0.07810252579135465</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1418106352388949</v>
+        <v>0.1414681815155457</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>58</v>
@@ -8619,19 +8619,19 @@
         <v>45781</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>35035</v>
+        <v>34590</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>58689</v>
+        <v>58276</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1176585015765073</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09004214782451227</v>
+        <v>0.08889675339177379</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1508333021995967</v>
+        <v>0.1497717231305762</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>100</v>
@@ -8640,19 +8640,19 @@
         <v>95778</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>77872</v>
+        <v>78184</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>116052</v>
+        <v>118050</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1107826071036323</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0900711090525842</v>
+        <v>0.090432708890408</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1342332577516306</v>
+        <v>0.1365444818655983</v>
       </c>
     </row>
     <row r="36">
@@ -8669,19 +8669,19 @@
         <v>164981</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>142936</v>
+        <v>141429</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>191348</v>
+        <v>191253</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3469954731174025</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3006288746706638</v>
+        <v>0.2974589722133087</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4024505496877508</v>
+        <v>0.4022512543103942</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>173</v>
@@ -8690,19 +8690,19 @@
         <v>123176</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>106019</v>
+        <v>108958</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>139340</v>
+        <v>140763</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3165661597750964</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2724727648629752</v>
+        <v>0.2800251592293738</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.358110547321727</v>
+        <v>0.3617668218115551</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>318</v>
@@ -8711,19 +8711,19 @@
         <v>288157</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>260403</v>
+        <v>258380</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>319615</v>
+        <v>316334</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3333005494733317</v>
+        <v>0.3333005494733315</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3011990782435732</v>
+        <v>0.2988590410881544</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3696870165334042</v>
+        <v>0.3658920511620766</v>
       </c>
     </row>
     <row r="37">
@@ -8740,19 +8740,19 @@
         <v>115998</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>96780</v>
+        <v>95762</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>139715</v>
+        <v>138704</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2439706479635177</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2035520036814712</v>
+        <v>0.2014109314155711</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2938548166491087</v>
+        <v>0.2917283822975208</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>120</v>
@@ -8761,19 +8761,19 @@
         <v>96661</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>82226</v>
+        <v>79083</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>114103</v>
+        <v>112915</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2484231083879412</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2113228477960576</v>
+        <v>0.2032470793610291</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2932497836198512</v>
+        <v>0.290195341205605</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>214</v>
@@ -8782,19 +8782,19 @@
         <v>212659</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>186485</v>
+        <v>186483</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>240889</v>
+        <v>241019</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2459745086768632</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.215700554695005</v>
+        <v>0.2156982825224805</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2786275072322098</v>
+        <v>0.2787779946403459</v>
       </c>
     </row>
     <row r="38">
@@ -8811,19 +8811,19 @@
         <v>63649</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>45853</v>
+        <v>45767</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>85171</v>
+        <v>85955</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.133870142721122</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09643928729802864</v>
+        <v>0.09625982498407144</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1791351537644857</v>
+        <v>0.1807844452981193</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>77</v>
@@ -8832,19 +8832,19 @@
         <v>66530</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>54416</v>
+        <v>53388</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>83021</v>
+        <v>82086</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.1709841659902363</v>
+        <v>0.1709841659902362</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1398514668287513</v>
+        <v>0.1372094482240199</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2133675272475268</v>
+        <v>0.2109647679227135</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>119</v>
@@ -8853,19 +8853,19 @@
         <v>130179</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>108277</v>
+        <v>109374</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>157714</v>
+        <v>155177</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1505735664585264</v>
+        <v>0.1505735664585263</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.12523988927587</v>
+        <v>0.1265091847216837</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1824220463655759</v>
+        <v>0.1794879301000846</v>
       </c>
     </row>
     <row r="39">
